--- a/Attachments/Data.xlsx
+++ b/Attachments/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Program Data\Microsoft\VisualStudio\MyProjects\Task_Monopoly\Attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CFE277-C75C-4970-A178-6B7B2A5477CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091202A3-31EE-4701-B472-E4878F86DFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,21 +212,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -378,246 +363,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -635,6 +380,261 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -786,51 +786,51 @@
     <tableColumn id="1" xr3:uid="{3B736B1C-F466-434D-97EF-3575A78F01C8}" name="Name_Box" dataDxfId="33"/>
     <tableColumn id="4" xr3:uid="{E273AA38-24AA-456B-AEB5-C41F47A24BF4}" name="Width_Box" dataDxfId="32"/>
     <tableColumn id="5" xr3:uid="{074498A8-983E-4E5B-969B-AB3E4A68C03E}" name="Length_Box" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{8ACADEC4-E559-4B48-B810-096DB8FCD681}" name="Height_Box" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{CDC4C7F2-7294-4E50-9F8E-A0E44E50BA44}" name="Date_Production_Box" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{821ED1D6-2D83-417C-B849-D1BC0A0FDC3E}" name="Date_Expiration_Box" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{DA1AE66E-AC05-4E26-B900-838B5AE3F623}" name="Weight_Box" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{6EEBE5F7-6C4A-4F1D-A6F4-457DD30EE45C}" name="Pallet_Box" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{8ACADEC4-E559-4B48-B810-096DB8FCD681}" name="Height_Box" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{CDC4C7F2-7294-4E50-9F8E-A0E44E50BA44}" name="Date_Production_Box" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{821ED1D6-2D83-417C-B849-D1BC0A0FDC3E}" name="Date_Expiration_Box" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{DA1AE66E-AC05-4E26-B900-838B5AE3F623}" name="Weight_Box" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{6EEBE5F7-6C4A-4F1D-A6F4-457DD30EE45C}" name="Pallet_Box" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="Стиль таблицы 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{041A1046-A41A-4802-89D1-2F317EED7E7B}" name="Таблица2" displayName="Таблица2" ref="A1:G4" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{041A1046-A41A-4802-89D1-2F317EED7E7B}" name="Таблица2" displayName="Таблица2" ref="A1:G4" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:G4" xr:uid="{041A1046-A41A-4802-89D1-2F317EED7E7B}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2A6A05A7-B997-4223-B5CC-9C9852609AE5}" name="ID_Pallet" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{B8731CE3-AFAE-413F-A585-D997BC89869F}" name="Name_Pallet" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{7FCFB49C-3BEB-4FA3-B1A7-527F439740B6}" name="Width_Pallet" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{DA26FC23-C782-41C1-9FF1-66CD4CFC670A}" name="Length_Pallet" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{74624DEC-66F6-4F0C-AC08-2FD42085D694}" name="Height_Pallet" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{A8061D68-0FA1-4616-A029-47588C5199E1}" name="Date_Expiration_Pallet" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{EAE28ACF-0CD4-4145-B5B0-40E22A96D472}" name="Weight_Pallet" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{2A6A05A7-B997-4223-B5CC-9C9852609AE5}" name="ID_Pallet" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{B8731CE3-AFAE-413F-A585-D997BC89869F}" name="Name_Pallet" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{7FCFB49C-3BEB-4FA3-B1A7-527F439740B6}" name="Width_Pallet" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{DA26FC23-C782-41C1-9FF1-66CD4CFC670A}" name="Length_Pallet" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{74624DEC-66F6-4F0C-AC08-2FD42085D694}" name="Height_Pallet" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{A8061D68-0FA1-4616-A029-47588C5199E1}" name="Date_Expiration_Pallet" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{EAE28ACF-0CD4-4145-B5B0-40E22A96D472}" name="Weight_Pallet" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="Стиль таблицы 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3E6AC2EB-A90A-4268-AF84-1BAAF7CC84CD}" name="Таблица14" displayName="Таблица14" ref="A1:O10" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3E6AC2EB-A90A-4268-AF84-1BAAF7CC84CD}" name="Таблица14" displayName="Таблица14" ref="A1:O10" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:O10" xr:uid="{3E6AC2EB-A90A-4268-AF84-1BAAF7CC84CD}"/>
   <tableColumns count="15">
-    <tableColumn id="2" xr3:uid="{6F0D98EF-D04B-40F1-A11E-ED2E3ECF7B48}" name="ID_Box" dataDxfId="8"/>
-    <tableColumn id="1" xr3:uid="{96C3B157-589C-4BD5-BA83-A384E629AF4A}" name="Name_Box" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{C63523B8-B82B-4928-A825-25ED30ACBF09}" name="Width_Box" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{D33A81B4-7FAB-4568-9CD1-A010F7A80484}" name="Length_Box" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{281C0C4A-DE6B-41AD-9013-5FB85F4FFD44}" name="Height_Box" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{0F9CA81B-D236-4B7C-9527-A83C2D89AE16}" name="Date_Production_Box" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{3F177045-CEB6-4CD8-B44E-791B351AD145}" name="Date_Expiration_Box" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{7F31BBF3-88AB-4CB3-A409-FB1A313012FC}" name="Weight_Box" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{57ABABC1-0801-4C57-9224-9E017B512578}" name="Pallet_Box" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{8E24F8B8-4572-45F8-BF4A-AD06ABFF6905}" name="Name_Pallet" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{61031BF3-DE34-46F9-9BD5-00DF5D8E7CEB}" name="Width_Pallet" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{08569B2A-0503-4282-B0D7-CB09ED246416}" name="Length_Pallet" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{B54F6D2D-F9DC-49E8-AA17-2E62E7CAD561}" name="Height_Pallet" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{7FC81A05-C8BC-402A-906C-BA5A0127F11A}" name="Date_Expiration_Pallet" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{33B7401F-F3B8-420A-818F-255A48D3622A}" name="Weight_Pallet" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{6F0D98EF-D04B-40F1-A11E-ED2E3ECF7B48}" name="ID_Box" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{96C3B157-589C-4BD5-BA83-A384E629AF4A}" name="Name_Box" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{C63523B8-B82B-4928-A825-25ED30ACBF09}" name="Width_Box" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{D33A81B4-7FAB-4568-9CD1-A010F7A80484}" name="Length_Box" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{281C0C4A-DE6B-41AD-9013-5FB85F4FFD44}" name="Height_Box" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{0F9CA81B-D236-4B7C-9527-A83C2D89AE16}" name="Date_Production_Box" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{3F177045-CEB6-4CD8-B44E-791B351AD145}" name="Date_Expiration_Box" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{7F31BBF3-88AB-4CB3-A409-FB1A313012FC}" name="Weight_Box" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{57ABABC1-0801-4C57-9224-9E017B512578}" name="Pallet_Box" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{8E24F8B8-4572-45F8-BF4A-AD06ABFF6905}" name="Name_Pallet" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{61031BF3-DE34-46F9-9BD5-00DF5D8E7CEB}" name="Width_Pallet" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{08569B2A-0503-4282-B0D7-CB09ED246416}" name="Length_Pallet" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{B54F6D2D-F9DC-49E8-AA17-2E62E7CAD561}" name="Height_Pallet" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{7FC81A05-C8BC-402A-906C-BA5A0127F11A}" name="Date_Expiration_Pallet" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{33B7401F-F3B8-420A-818F-255A48D3622A}" name="Weight_Pallet" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="Стиль таблицы 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1102,7 +1102,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E1" sqref="E1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,10 +1130,10 @@
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
